--- a/02_paper/02_study/02_fitbit paper/references/Übersicht.xlsx
+++ b/02_paper/02_study/02_fitbit paper/references/Übersicht.xlsx
@@ -1,42 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20405"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/035a45e816ed2ffa/Documents/FitBit/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\empschulml\Documents\GitHub\Mandy-PhD\02_paper\02_study\02_fitbit paper\references\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="184" documentId="8_{DBB9E2A9-D662-4AD8-8942-E1409A072C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{986A2276-3A12-45CA-8BB3-CE0731713720}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD0B565A-668B-4653-BA3E-DB190620FFE1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="9705" windowHeight="7875" xr2:uid="{F8A29DBC-2CD2-4E91-990F-8247A7B4CC2B}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="9708" windowHeight="7872" xr2:uid="{F8A29DBC-2CD2-4E91-990F-8247A7B4CC2B}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$I$20</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="119">
   <si>
     <t>Autor:in</t>
   </si>
@@ -346,6 +338,84 @@
   </si>
   <si>
     <t>The Apple Watch showed lower RER (2.4–5.1%) compared with the Fitbit (3.9–13.5%) for all exercise intensities. For both devices, the strongest relationship with ECG-measured HR was found for very light PA with very high CCC (&gt;.90) and equivalence. The strength of the relationship declined as exercise intensity increased for both devices. These findings indicate that the accuracy of real-time HR monitoring by the Apple Watch and Fitbit Charge HR2 is reduced as exercise intensity increases.</t>
+  </si>
+  <si>
+    <t>topic</t>
+  </si>
+  <si>
+    <t>The Biopsychosocial Model of Arousal Regulation</t>
+  </si>
+  <si>
+    <t>Blascovich, Jim; Tomaka, Joe</t>
+  </si>
+  <si>
+    <t>Social "Facilitation" as Challenge and Threat</t>
+  </si>
+  <si>
+    <t>arousal_HR</t>
+  </si>
+  <si>
+    <t>Blascovich, Jim; Mendes, Wendy Berry; Hunter, Sarah B.; Salomon, Kristen</t>
+  </si>
+  <si>
+    <t>The authors conducted an experiment to test a theoretical explanation of social facilitation based on the biopsychosocial mode) of challenge and threat</t>
+  </si>
+  <si>
+    <t>Cardiovascular responses of participants performing a well-learned task in the presence of others fit the challenge pattern (i.e., increased cardiac response and decreased vascular resistance), whereas cardiovascular responses of participants performing an unlearned task in the presence of others fit the threat pattern (i.e., increased cardiac response and increased vascular resistance), confirming the authors' hypotheses and the applicability of the biopsychosocial model of challenge and threat to explain these results.</t>
+  </si>
+  <si>
+    <t>Participants were 84 undergraduate students (41 men and 43 women) at University of California, Santa Barbara Participants mastered 1 of 2 tasks and subsequently performed either the mastered (i.e., well-learned) or the unlearned task either alone or with an audience while cardiovascular responses were recorded</t>
+  </si>
+  <si>
+    <t>Test Anxiety and Physiological Arousal: A Systematic Review and Meta-Analysis</t>
+  </si>
+  <si>
+    <t>Roos, Anna-Lena; Goetz, Thomas; Voracek, Martin; Krannich, Maike; Bieg, Madeleine; Jarrell, Amanda; Pekrun, Reinhard</t>
+  </si>
+  <si>
+    <t>This systematic review and meta-analysis investigated whether higher self-reported test anxiety is associated with expected increases in objectively measured physiological arousal.</t>
+  </si>
+  <si>
+    <t>A systematic literature search yielded an initial 231 articles, and a structured selection process identified 29 eligible articles, comprising 31 studies, which met the specified inclusion criteria and provided sufficient information about the relationship under investigation.</t>
+  </si>
+  <si>
+    <t>In line with theoretical models, in 21 out of the 31 included studies, there was a significant positive relationship between self-reported test anxiety and physiological arousal. The strengths of these correlations were of medium size.</t>
+  </si>
+  <si>
+    <t>Associations between teachers’ interpersonal behavior, physiological arousal, and lesson-focused emotions</t>
+  </si>
+  <si>
+    <t>Donker, Monika H.; van Gog, Tamara; Goetz, Thomas; Roos, Anna-Lena; Mainhard, Tim</t>
+  </si>
+  <si>
+    <t>80 secondary education teachers with a mean age of 43.7 years (SD = 11.5) and 13.4 years of teaching experience (SD = 9.7) participated during one real-life lesson. We coded teacher behavior from an interpersonal perspective on the dimensions of agency (i.e., social influence) and communion (i.e., friendliness). Teachers’ physiology (in terms of heart rate) was measured as a proxy for their affective arousal.</t>
+  </si>
+  <si>
+    <t>We computed several statistical indicators based on the moment-to-moment data: the mean level, range, and stability of interpersonal teacher behavior, and the within-person cross-correlation between teachers’ interpersonal behavior and physiological arousal. The goal of the current study was to evaluate to what degree these statistical indicators could explain between-person differences in teachers’ self-reported and lesson-focused emotions.</t>
+  </si>
+  <si>
+    <t>Teachers differed widely in their behaviors and in how behavior and physiology were associated from moment to moment. Being generally agentic was associated with higher levels of self-reported positive emotions after the lesson, also when being agentic went together with a high heart rate. In contrast, the stronger and the more positively a teacher’s physiological arousal was associated with displaying communal behavior, the more likely a teacher was to report negative emotions.</t>
+  </si>
+  <si>
+    <t>Modeling cognitive load and physiological arousal through pupil diameter and heart rate</t>
+  </si>
+  <si>
+    <t>Jercic, Petar; Sennersten, Charlotte; Lindley, Craig</t>
+  </si>
+  <si>
+    <t>wearables_fitnesstracker_fitbit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This study investigates individuals’ cognitive load processing abilities while engaged on a decision-making task in serious games, to explore how a substantial cognitive load dominates over the physiological arousal effect on pupil diameter. </t>
+  </si>
+  <si>
+    <t>A serious game was presented to the participants, which displayed the on–line biofeedback based on physiological measurements of arousal. In such dynamic decision-making environment, the pupil diameter was analyzed in relation to the heart rate, to evaluate if the former could be a useful measure of cognitive abilities of individuals. As pupil might reflect both cognitive activity and physiological arousal, the pupillary response will show an arousal effect only when the cognitive demands of the situation are minimal.</t>
+  </si>
+  <si>
+    <t>Evidence shows that in a situation where a substantial level of cognitive activity is required, only that activity will be observable on the pupil diameter, dominating over the physiological arousal effect indicated by the pupillary response</t>
+  </si>
+  <si>
+    <t>Does basic need satisfaction mediate the link between stress exposure and well-being? A diary study among beginning teachers</t>
   </si>
 </sst>
 </file>
@@ -416,8 +486,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -733,24 +803,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F893743F-6E98-422E-981D-EA74017F6BC3}">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.28515625" customWidth="1"/>
-    <col min="6" max="6" width="31.140625" customWidth="1"/>
-    <col min="7" max="7" width="34.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="34.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.33203125" customWidth="1"/>
+    <col min="6" max="6" width="31.109375" customWidth="1"/>
+    <col min="7" max="7" width="34.33203125" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
+    <col min="9" max="9" width="27.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -775,8 +847,11 @@
       <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="128.25" x14ac:dyDescent="0.25">
+      <c r="I1" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="138" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -801,8 +876,11 @@
       <c r="H2" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="179.25" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="193.2" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
@@ -827,8 +905,11 @@
       <c r="H3" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="153.75" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="165.6" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>40</v>
       </c>
@@ -851,8 +932,11 @@
         <v>22</v>
       </c>
       <c r="H4" s="5"/>
-    </row>
-    <row r="5" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="I4" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>39</v>
       </c>
@@ -875,8 +959,11 @@
         <v>26</v>
       </c>
       <c r="H5" s="5"/>
-    </row>
-    <row r="6" spans="1:8" ht="128.25" x14ac:dyDescent="0.25">
+      <c r="I5" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="138" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>38</v>
       </c>
@@ -899,8 +986,11 @@
         <v>30</v>
       </c>
       <c r="H6" s="5"/>
-    </row>
-    <row r="7" spans="1:8" ht="153.75" x14ac:dyDescent="0.25">
+      <c r="I6" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="165.6" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>37</v>
       </c>
@@ -923,8 +1013,11 @@
         <v>44</v>
       </c>
       <c r="H7" s="5"/>
-    </row>
-    <row r="8" spans="1:8" ht="166.5" x14ac:dyDescent="0.25">
+      <c r="I7" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="179.4" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>47</v>
       </c>
@@ -949,8 +1042,11 @@
       <c r="H8" s="4" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="166.5" x14ac:dyDescent="0.25">
+      <c r="I8" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="179.4" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>88</v>
       </c>
@@ -973,8 +1069,11 @@
         <v>92</v>
       </c>
       <c r="H9" s="4"/>
-    </row>
-    <row r="10" spans="1:8" ht="153.75" x14ac:dyDescent="0.25">
+      <c r="I9" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="165.6" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>66</v>
       </c>
@@ -997,8 +1096,11 @@
         <v>70</v>
       </c>
       <c r="H10" s="4"/>
-    </row>
-    <row r="11" spans="1:8" ht="141" x14ac:dyDescent="0.25">
+      <c r="I10" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="151.80000000000001" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>79</v>
       </c>
@@ -1021,8 +1123,11 @@
         <v>82</v>
       </c>
       <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="I11" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>83</v>
       </c>
@@ -1042,7 +1147,7 @@
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:8" ht="179.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="193.2" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>72</v>
       </c>
@@ -1066,7 +1171,7 @@
       </c>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="138" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>63</v>
       </c>
@@ -1090,7 +1195,7 @@
       </c>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:8" ht="153.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="165.6" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>59</v>
       </c>
@@ -1114,68 +1219,139 @@
       </c>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
+    <row r="16" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" s="4">
+        <v>1996</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>94</v>
+      </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="5"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
+      <c r="I16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="193.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B17" s="4">
+        <v>1999</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>96</v>
+      </c>
       <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
+      <c r="E17" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>100</v>
+      </c>
       <c r="H17" s="5"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
+      <c r="I17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="110.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B18" s="4">
+        <v>2020</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>102</v>
+      </c>
       <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
+      <c r="E18" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="H18" s="5"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
+      <c r="I18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="179.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B19" s="4">
+        <v>2020</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
+      <c r="E19" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>111</v>
+      </c>
       <c r="H19" s="5"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
+      <c r="I19" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="207" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B20" s="4">
+        <v>2018</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>112</v>
+      </c>
       <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
+      <c r="E20" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>117</v>
+      </c>
       <c r="H20" s="5"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
+      <c r="C21" s="4" t="s">
+        <v>118</v>
+      </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="5"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="4"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -1183,8 +1359,8 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="4"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -1192,8 +1368,8 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="4"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1201,8 +1377,8 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="4"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -1210,8 +1386,8 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="4"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -1219,8 +1395,8 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="4"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -1228,8 +1404,8 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="4"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -1237,8 +1413,8 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="4"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -1246,8 +1422,8 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="4"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -1255,8 +1431,8 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="4"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -1264,8 +1440,8 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="4"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -1273,8 +1449,8 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="4"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -1283,6 +1459,7 @@
       <c r="G33" s="2"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I20" xr:uid="{DC99899F-CD9F-4F44-A273-DC1D6876D0C2}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/02_paper/02_study/02_fitbit paper/references/Übersicht.xlsx
+++ b/02_paper/02_study/02_fitbit paper/references/Übersicht.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20405"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\empschulml\Documents\GitHub\Mandy-PhD\02_paper\02_study\02_fitbit paper\references\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LEN\Documents\GitHub\Mandy-PhD\02_paper\02_study\02_fitbit paper\references\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD0B565A-668B-4653-BA3E-DB190620FFE1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12AE02A6-2F2B-4868-A895-3AD69CF4807F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="9708" windowHeight="7872" xr2:uid="{F8A29DBC-2CD2-4E91-990F-8247A7B4CC2B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{F8A29DBC-2CD2-4E91-990F-8247A7B4CC2B}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="136">
   <si>
     <t>Autor:in</t>
   </si>
@@ -416,6 +416,57 @@
   </si>
   <si>
     <t>Does basic need satisfaction mediate the link between stress exposure and well-being? A diary study among beginning teachers</t>
+  </si>
+  <si>
+    <t>Aldrup, Karen; Klusmann, Uta; Lüdtke, Oliver</t>
+  </si>
+  <si>
+    <t>teacher_stress_HR</t>
+  </si>
+  <si>
+    <t>To test this assumption, we conducted a two-week diary study with 152 beginning teachers.</t>
+  </si>
+  <si>
+    <t>An imbalance between work-related stressors and resources, which we refer to as stress exposure, is often found to impair teachers' occupational well-being. However, the psychological mechanisms that explain this relationship are mostly unknown. We assumed that satisfaction of the basic psychological needs for competence, relatedness with students, and relatedness with colleagues acts as a mediator.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A multilevel within-subject mediation analysis showed that teachers felt less work enthusiasm and more emotional exhaustion on days when stress exposure was high. Whereas the needs for competence and relatedness with students explained the association with work enthusiasm, the need for competence mediated the relationship with emotional exhaustion. Additionally, the least experienced teachers felt more emotional exhaustion when the need for relatedness with students was not satisfied. </t>
+  </si>
+  <si>
+    <t>Aldrup, Karen; Klusmann, Uta; Lüdtke, Oliver; Göllner, Richard; Trautwein, Ulrich</t>
+  </si>
+  <si>
+    <t>Student misbehavior and teacher well-being: Testing the mediating role of the teacher-student relationship</t>
+  </si>
+  <si>
+    <t>To test this assumption, the present study used longitudinal data from N = 222 teachers who rated student misbehavior in their classroom, the teacher-student relationship, and their well-being in terms of emotional exhaustion and work enthusiasm. In addition, the teachers' students (N = 4111) were asked about behavior problems in their class.</t>
+  </si>
+  <si>
+    <t>The results revealed links between teacher-rated student misbehavior, increased exhaustion, and decreased enthusiasm. Student-rated misbehavior was correlated with teacher well-being to a lesser extent. Furthermore, the teacher-student relationship was positively associated with teacher well-being and mediated the link between teacher-perceived misbehavior and enthusiasm.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asked about major job stressors, teachers consistently name classroom disturbances or disciplinary problems. Furthermore, student misbehavior has been linked to reduced occupational well-being. However, there is a pressing need to uncover the psychological processes explaining this association. In their model of teacher well-being, Spilt, Koomen, and Thijs (2011) suggested the teacher-student relationship as a mediator. </t>
+  </si>
+  <si>
+    <t>A multivariate meta-analysis of student misbehavior and teacher burnout</t>
+  </si>
+  <si>
+    <t>Aloe, Ariel M.; Shisler, Shannon M.; Norris, Benjamin D.; Nickerson, Amanda B.; Rinker, Tyler W.</t>
+  </si>
+  <si>
+    <t>A multivariate meta-analysis was conducted to explore the relationship between student misbehavior and the three dimensions of teacher burnout (i.e., emotional exhaustion, depersonalization, and personal accomplishment).</t>
+  </si>
+  <si>
+    <t>A total of 21 independent samples were included in the analysis, which provided a total of 63 effect sizes.</t>
+  </si>
+  <si>
+    <t>Our results indicated that students’ misbehavior related significantly with the three dimension of teacher burnout. The largest effect was between students’ misbehavior and teacher emotional exhaustion, followed by depersonalization, and then personal accomplishment. Moderator analyses revealed that grade level, teacher age, country, percentage of female teachers, and year of publication each explained some variability among the effects.</t>
+  </si>
+  <si>
+    <t>Classroom Management Strategies for Difficult Students: Promoting Change through Relationships</t>
+  </si>
+  <si>
+    <t>Beaty-O'Ferrall, Mary Ellen; Green, Alan; Hanna, Fred</t>
   </si>
 </sst>
 </file>
@@ -805,24 +856,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F893743F-6E98-422E-981D-EA74017F6BC3}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="34.33203125" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.33203125" customWidth="1"/>
-    <col min="6" max="6" width="31.109375" customWidth="1"/>
-    <col min="7" max="7" width="34.33203125" customWidth="1"/>
+    <col min="1" max="1" width="18.36328125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="34.36328125" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.36328125" customWidth="1"/>
+    <col min="6" max="6" width="31.08984375" customWidth="1"/>
+    <col min="7" max="7" width="34.36328125" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="27.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -851,7 +902,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="138" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="117.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -880,7 +931,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="193.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="169.5" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
@@ -909,7 +960,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="165.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="156.5" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>40</v>
       </c>
@@ -936,7 +987,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="96.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="91.5" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>39</v>
       </c>
@@ -963,7 +1014,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="138" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>38</v>
       </c>
@@ -990,7 +1041,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="165.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="156.5" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>37</v>
       </c>
@@ -1017,7 +1068,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="179.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="156.5" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>47</v>
       </c>
@@ -1046,7 +1097,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="179.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="169.5" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>88</v>
       </c>
@@ -1073,7 +1124,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="165.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="156.5" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>66</v>
       </c>
@@ -1100,7 +1151,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="151.80000000000001" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>79</v>
       </c>
@@ -1127,7 +1178,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="104.5" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>83</v>
       </c>
@@ -1147,7 +1198,7 @@
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:9" ht="193.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="169.5" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>72</v>
       </c>
@@ -1171,7 +1222,7 @@
       </c>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:9" ht="138" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="117.5" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>63</v>
       </c>
@@ -1195,7 +1246,7 @@
       </c>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:9" ht="165.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="156.5" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>59</v>
       </c>
@@ -1219,7 +1270,7 @@
       </c>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>95</v>
       </c>
@@ -1238,7 +1289,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="193.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="182.5" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
         <v>98</v>
       </c>
@@ -1263,7 +1314,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="91.5" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
         <v>103</v>
       </c>
@@ -1288,7 +1339,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="179.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="156.5" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>108</v>
       </c>
@@ -1313,7 +1364,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="207" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="195.5" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>113</v>
       </c>
@@ -1338,46 +1389,95 @@
         <v>97</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
+    <row r="21" spans="1:9" ht="169.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B21" s="4">
+        <v>2017</v>
+      </c>
       <c r="C21" s="4" t="s">
         <v>118</v>
       </c>
       <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
+      <c r="E21" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>123</v>
+      </c>
       <c r="H21" s="5"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
+      <c r="I21" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B22" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
+      <c r="E22" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="I22" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B23" s="2">
+        <v>2014</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="4"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
+      <c r="E23" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B24" s="2">
+        <v>2010</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="4"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1386,7 +1486,7 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1395,7 +1495,7 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="4"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1404,7 +1504,7 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="4"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1413,7 +1513,7 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="4"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1422,7 +1522,7 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="4"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1431,7 +1531,7 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="4"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1440,7 +1540,7 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="4"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1449,7 +1549,7 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="4"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
